--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Il4ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H2">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I2">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J2">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.5401845830448</v>
+        <v>29.68876666666667</v>
       </c>
       <c r="N2">
-        <v>26.5401845830448</v>
+        <v>89.0663</v>
       </c>
       <c r="O2">
-        <v>0.1815718497242931</v>
+        <v>0.1908084151656295</v>
       </c>
       <c r="P2">
-        <v>0.1815718497242931</v>
+        <v>0.1941968737840524</v>
       </c>
       <c r="Q2">
-        <v>32.7017331878216</v>
+        <v>14.25644679077778</v>
       </c>
       <c r="R2">
-        <v>32.7017331878216</v>
+        <v>128.308021117</v>
       </c>
       <c r="S2">
-        <v>0.09631663862774829</v>
+        <v>0.02260682536485828</v>
       </c>
       <c r="T2">
-        <v>0.09631663862774829</v>
+        <v>0.0252929283560006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H3">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I3">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J3">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9194815524927</v>
+        <v>38.59934733333333</v>
       </c>
       <c r="N3">
-        <v>36.9194815524927</v>
+        <v>115.798042</v>
       </c>
       <c r="O3">
-        <v>0.2525807058866716</v>
+        <v>0.2480763304785649</v>
       </c>
       <c r="P3">
-        <v>0.2525807058866716</v>
+        <v>0.2524817775827041</v>
       </c>
       <c r="Q3">
-        <v>45.49067966669762</v>
+        <v>18.53527792497556</v>
       </c>
       <c r="R3">
-        <v>45.49067966669762</v>
+        <v>166.81750132478</v>
       </c>
       <c r="S3">
-        <v>0.1339840102426034</v>
+        <v>0.0293918812512311</v>
       </c>
       <c r="T3">
-        <v>0.1339840102426034</v>
+        <v>0.03288417257785659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H4">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I4">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J4">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.6627583059562</v>
+        <v>34.61555133333334</v>
       </c>
       <c r="N4">
-        <v>30.6627583059562</v>
+        <v>103.846654</v>
       </c>
       <c r="O4">
-        <v>0.2097759993281355</v>
+        <v>0.2224726464442049</v>
       </c>
       <c r="P4">
-        <v>0.2097759993281355</v>
+        <v>0.2264234122191464</v>
       </c>
       <c r="Q4">
-        <v>37.78140041891914</v>
+        <v>16.62227236509556</v>
       </c>
       <c r="R4">
-        <v>37.78140041891914</v>
+        <v>149.60045128586</v>
       </c>
       <c r="S4">
-        <v>0.1112778172979064</v>
+        <v>0.02635837765465571</v>
       </c>
       <c r="T4">
-        <v>0.1112778172979064</v>
+        <v>0.02949023345117494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H5">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I5">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J5">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.9020427812871</v>
+        <v>44.54626066666666</v>
       </c>
       <c r="N5">
-        <v>43.9020427812871</v>
+        <v>133.638782</v>
       </c>
       <c r="O5">
-        <v>0.3003511557928599</v>
+        <v>0.2862968844342367</v>
       </c>
       <c r="P5">
-        <v>0.3003511557928599</v>
+        <v>0.2913810687174441</v>
       </c>
       <c r="Q5">
-        <v>54.09430687799962</v>
+        <v>21.39096588459778</v>
       </c>
       <c r="R5">
-        <v>54.09430687799962</v>
+        <v>192.51869296138</v>
       </c>
       <c r="S5">
-        <v>0.1593243323667971</v>
+        <v>0.03392022130307833</v>
       </c>
       <c r="T5">
-        <v>0.1593243323667971</v>
+        <v>0.03795056198258131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.23215922200907</v>
+        <v>0.4801966666666667</v>
       </c>
       <c r="H6">
-        <v>1.23215922200907</v>
+        <v>1.44059</v>
       </c>
       <c r="I6">
-        <v>0.5304601939893206</v>
+        <v>0.1184791841871053</v>
       </c>
       <c r="J6">
-        <v>0.5304601939893206</v>
+        <v>0.1302437462722826</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.1445816873042</v>
+        <v>8.144714</v>
       </c>
       <c r="N6">
-        <v>8.1445816873042</v>
+        <v>16.289428</v>
       </c>
       <c r="O6">
-        <v>0.05572028926803984</v>
+        <v>0.05234572347736401</v>
       </c>
       <c r="P6">
-        <v>0.05572028926803984</v>
+        <v>0.03551686769665304</v>
       </c>
       <c r="Q6">
-        <v>10.03542143541806</v>
+        <v>3.911064513753333</v>
       </c>
       <c r="R6">
-        <v>10.03542143541806</v>
+        <v>23.46638708252</v>
       </c>
       <c r="S6">
-        <v>0.02955739545426548</v>
+        <v>0.006201878613281892</v>
       </c>
       <c r="T6">
-        <v>0.02955739545426548</v>
+        <v>0.004625849904669107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H7">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I7">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J7">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5401845830448</v>
+        <v>29.68876666666667</v>
       </c>
       <c r="N7">
-        <v>26.5401845830448</v>
+        <v>89.0663</v>
       </c>
       <c r="O7">
-        <v>0.1815718497242931</v>
+        <v>0.1908084151656295</v>
       </c>
       <c r="P7">
-        <v>0.1815718497242931</v>
+        <v>0.1941968737840524</v>
       </c>
       <c r="Q7">
-        <v>28.9461219356487</v>
+        <v>51.91265911645556</v>
       </c>
       <c r="R7">
-        <v>28.9461219356487</v>
+        <v>467.2139320481</v>
       </c>
       <c r="S7">
-        <v>0.08525521109654478</v>
+        <v>0.08231927885637642</v>
       </c>
       <c r="T7">
-        <v>0.08525521109654478</v>
+        <v>0.09210030992093775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H8">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I8">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J8">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.9194815524927</v>
+        <v>38.59934733333333</v>
       </c>
       <c r="N8">
-        <v>36.9194815524927</v>
+        <v>115.798042</v>
       </c>
       <c r="O8">
-        <v>0.2525807058866716</v>
+        <v>0.2480763304785649</v>
       </c>
       <c r="P8">
-        <v>0.2525807058866716</v>
+        <v>0.2524817775827041</v>
       </c>
       <c r="Q8">
-        <v>40.26632940232489</v>
+        <v>67.49336483831711</v>
       </c>
       <c r="R8">
-        <v>40.26632940232489</v>
+        <v>607.440283544854</v>
       </c>
       <c r="S8">
-        <v>0.1185966956440682</v>
+        <v>0.1070260166911659</v>
       </c>
       <c r="T8">
-        <v>0.1185966956440682</v>
+        <v>0.1197426586311295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H9">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I9">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J9">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.6627583059562</v>
+        <v>34.61555133333334</v>
       </c>
       <c r="N9">
-        <v>30.6627583059562</v>
+        <v>103.846654</v>
       </c>
       <c r="O9">
-        <v>0.2097759993281355</v>
+        <v>0.2224726464442049</v>
       </c>
       <c r="P9">
-        <v>0.2097759993281355</v>
+        <v>0.2264234122191464</v>
       </c>
       <c r="Q9">
-        <v>33.44241778086788</v>
+        <v>60.52744920903312</v>
       </c>
       <c r="R9">
-        <v>33.44241778086788</v>
+        <v>544.7470428812981</v>
       </c>
       <c r="S9">
-        <v>0.09849818203022914</v>
+        <v>0.09597997973338558</v>
       </c>
       <c r="T9">
-        <v>0.09849818203022914</v>
+        <v>0.1073841511060007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.09065262319769</v>
+        <v>1.748562333333333</v>
       </c>
       <c r="H10">
-        <v>1.09065262319769</v>
+        <v>5.245687</v>
       </c>
       <c r="I10">
-        <v>0.4695398060106792</v>
+        <v>0.4314237335125913</v>
       </c>
       <c r="J10">
-        <v>0.4695398060106792</v>
+        <v>0.4742625775909947</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.9020427812871</v>
+        <v>44.54626066666666</v>
       </c>
       <c r="N10">
-        <v>43.9020427812871</v>
+        <v>133.638782</v>
       </c>
       <c r="O10">
-        <v>0.3003511557928599</v>
+        <v>0.2862968844342367</v>
       </c>
       <c r="P10">
-        <v>0.3003511557928599</v>
+        <v>0.2913810687174441</v>
       </c>
       <c r="Q10">
-        <v>47.88187812314799</v>
+        <v>77.89191349258155</v>
       </c>
       <c r="R10">
-        <v>47.88187812314799</v>
+        <v>701.027221433234</v>
       </c>
       <c r="S10">
-        <v>0.1410268234260627</v>
+        <v>0.1235152707756413</v>
       </c>
       <c r="T10">
-        <v>0.1410268234260627</v>
+        <v>0.1381911367111538</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.748562333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.245687</v>
+      </c>
+      <c r="I11">
+        <v>0.4314237335125913</v>
+      </c>
+      <c r="J11">
+        <v>0.4742625775909947</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.144714</v>
+      </c>
+      <c r="N11">
+        <v>16.289428</v>
+      </c>
+      <c r="O11">
+        <v>0.05234572347736401</v>
+      </c>
+      <c r="P11">
+        <v>0.03551686769665304</v>
+      </c>
+      <c r="Q11">
+        <v>14.24154011617267</v>
+      </c>
+      <c r="R11">
+        <v>85.449240697036</v>
+      </c>
+      <c r="S11">
+        <v>0.02258318745602208</v>
+      </c>
+      <c r="T11">
+        <v>0.01684432122177301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.482537</v>
+      </c>
+      <c r="I12">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J12">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>29.68876666666667</v>
+      </c>
+      <c r="N12">
+        <v>89.0663</v>
+      </c>
+      <c r="O12">
+        <v>0.1908084151656295</v>
+      </c>
+      <c r="P12">
+        <v>0.1941968737840524</v>
+      </c>
+      <c r="Q12">
+        <v>4.775309467011111</v>
+      </c>
+      <c r="R12">
+        <v>42.9777852031</v>
+      </c>
+      <c r="S12">
+        <v>0.007572334731660375</v>
+      </c>
+      <c r="T12">
+        <v>0.008472066146592341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.482537</v>
+      </c>
+      <c r="I13">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J13">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>38.59934733333333</v>
+      </c>
+      <c r="N13">
+        <v>115.798042</v>
+      </c>
+      <c r="O13">
+        <v>0.2480763304785649</v>
+      </c>
+      <c r="P13">
+        <v>0.2524817775827041</v>
+      </c>
+      <c r="Q13">
+        <v>6.208537754728222</v>
+      </c>
+      <c r="R13">
+        <v>55.87683979255399</v>
+      </c>
+      <c r="S13">
+        <v>0.009845042797274243</v>
+      </c>
+      <c r="T13">
+        <v>0.01101481336341442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.482537</v>
+      </c>
+      <c r="I14">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J14">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.61555133333334</v>
+      </c>
+      <c r="N14">
+        <v>103.846654</v>
+      </c>
+      <c r="O14">
+        <v>0.2224726464442049</v>
+      </c>
+      <c r="P14">
+        <v>0.2264234122191464</v>
+      </c>
+      <c r="Q14">
+        <v>5.567761431244223</v>
+      </c>
+      <c r="R14">
+        <v>50.109852881198</v>
+      </c>
+      <c r="S14">
+        <v>0.008828946805367662</v>
+      </c>
+      <c r="T14">
+        <v>0.009877986643548548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.482537</v>
+      </c>
+      <c r="I15">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J15">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>44.54626066666666</v>
+      </c>
+      <c r="N15">
+        <v>133.638782</v>
+      </c>
+      <c r="O15">
+        <v>0.2862968844342367</v>
+      </c>
+      <c r="P15">
+        <v>0.2913810687174441</v>
+      </c>
+      <c r="Q15">
+        <v>7.16507299443711</v>
+      </c>
+      <c r="R15">
+        <v>64.485656949934</v>
+      </c>
+      <c r="S15">
+        <v>0.0113618460678774</v>
+      </c>
+      <c r="T15">
+        <v>0.01271184051492016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1608456666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.482537</v>
+      </c>
+      <c r="I16">
+        <v>0.03968553863354128</v>
+      </c>
+      <c r="J16">
+        <v>0.04362617163453058</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.144714</v>
+      </c>
+      <c r="N16">
+        <v>16.289428</v>
+      </c>
+      <c r="O16">
+        <v>0.05234572347736401</v>
+      </c>
+      <c r="P16">
+        <v>0.03551686769665304</v>
+      </c>
+      <c r="Q16">
+        <v>1.310041953139333</v>
+      </c>
+      <c r="R16">
+        <v>7.860251718836</v>
+      </c>
+      <c r="S16">
+        <v>0.002077368231361598</v>
+      </c>
+      <c r="T16">
+        <v>0.0015494649660551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.695328</v>
+      </c>
+      <c r="I17">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J17">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>29.68876666666667</v>
+      </c>
+      <c r="N17">
+        <v>89.0663</v>
+      </c>
+      <c r="O17">
+        <v>0.1908084151656295</v>
+      </c>
+      <c r="P17">
+        <v>0.1941968737840524</v>
+      </c>
+      <c r="Q17">
+        <v>16.77739913848889</v>
+      </c>
+      <c r="R17">
+        <v>150.9965922464</v>
+      </c>
+      <c r="S17">
+        <v>0.02660436628891944</v>
+      </c>
+      <c r="T17">
+        <v>0.02976545001972926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.09065262319769</v>
-      </c>
-      <c r="H11">
-        <v>1.09065262319769</v>
-      </c>
-      <c r="I11">
-        <v>0.4695398060106792</v>
-      </c>
-      <c r="J11">
-        <v>0.4695398060106792</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.1445816873042</v>
-      </c>
-      <c r="N11">
-        <v>8.1445816873042</v>
-      </c>
-      <c r="O11">
-        <v>0.05572028926803984</v>
-      </c>
-      <c r="P11">
-        <v>0.05572028926803984</v>
-      </c>
-      <c r="Q11">
-        <v>8.882909382106194</v>
-      </c>
-      <c r="R11">
-        <v>8.882909382106194</v>
-      </c>
-      <c r="S11">
-        <v>0.02616289381377436</v>
-      </c>
-      <c r="T11">
-        <v>0.02616289381377436</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.695328</v>
+      </c>
+      <c r="I18">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J18">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>38.59934733333333</v>
+      </c>
+      <c r="N18">
+        <v>115.798042</v>
+      </c>
+      <c r="O18">
+        <v>0.2480763304785649</v>
+      </c>
+      <c r="P18">
+        <v>0.2524817775827041</v>
+      </c>
+      <c r="Q18">
+        <v>21.81285143864178</v>
+      </c>
+      <c r="R18">
+        <v>196.315662947776</v>
+      </c>
+      <c r="S18">
+        <v>0.03458921640292319</v>
+      </c>
+      <c r="T18">
+        <v>0.03869904589652327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.695328</v>
+      </c>
+      <c r="I19">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J19">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>34.61555133333334</v>
+      </c>
+      <c r="N19">
+        <v>103.846654</v>
+      </c>
+      <c r="O19">
+        <v>0.2224726464442049</v>
+      </c>
+      <c r="P19">
+        <v>0.2264234122191464</v>
+      </c>
+      <c r="Q19">
+        <v>19.56157113694578</v>
+      </c>
+      <c r="R19">
+        <v>176.054140232512</v>
+      </c>
+      <c r="S19">
+        <v>0.03101930158651119</v>
+      </c>
+      <c r="T19">
+        <v>0.03470496011794717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.695328</v>
+      </c>
+      <c r="I20">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J20">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>44.54626066666666</v>
+      </c>
+      <c r="N20">
+        <v>133.638782</v>
+      </c>
+      <c r="O20">
+        <v>0.2862968844342367</v>
+      </c>
+      <c r="P20">
+        <v>0.2913810687174441</v>
+      </c>
+      <c r="Q20">
+        <v>25.17350766783289</v>
+      </c>
+      <c r="R20">
+        <v>226.561569010496</v>
+      </c>
+      <c r="S20">
+        <v>0.03991829801769079</v>
+      </c>
+      <c r="T20">
+        <v>0.04466131955990643</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.5651093333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.695328</v>
+      </c>
+      <c r="I21">
+        <v>0.1394297325190074</v>
+      </c>
+      <c r="J21">
+        <v>0.1532746096254286</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.144714</v>
+      </c>
+      <c r="N21">
+        <v>16.289428</v>
+      </c>
+      <c r="O21">
+        <v>0.05234572347736401</v>
+      </c>
+      <c r="P21">
+        <v>0.03551686769665304</v>
+      </c>
+      <c r="Q21">
+        <v>4.602653898730667</v>
+      </c>
+      <c r="R21">
+        <v>27.615923392384</v>
+      </c>
+      <c r="S21">
+        <v>0.007298550222962789</v>
+      </c>
+      <c r="T21">
+        <v>0.005443834031322491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0982905</v>
+      </c>
+      <c r="H22">
+        <v>2.196581</v>
+      </c>
+      <c r="I22">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J22">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>29.68876666666667</v>
+      </c>
+      <c r="N22">
+        <v>89.0663</v>
+      </c>
+      <c r="O22">
+        <v>0.1908084151656295</v>
+      </c>
+      <c r="P22">
+        <v>0.1941968737840524</v>
+      </c>
+      <c r="Q22">
+        <v>32.60689038671667</v>
+      </c>
+      <c r="R22">
+        <v>195.6413423203</v>
+      </c>
+      <c r="S22">
+        <v>0.051705609923815</v>
+      </c>
+      <c r="T22">
+        <v>0.03856611934079241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0982905</v>
+      </c>
+      <c r="H23">
+        <v>2.196581</v>
+      </c>
+      <c r="I23">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J23">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>38.59934733333333</v>
+      </c>
+      <c r="N23">
+        <v>115.798042</v>
+      </c>
+      <c r="O23">
+        <v>0.2480763304785649</v>
+      </c>
+      <c r="P23">
+        <v>0.2524817775827041</v>
+      </c>
+      <c r="Q23">
+        <v>42.39329648240034</v>
+      </c>
+      <c r="R23">
+        <v>254.359778894402</v>
+      </c>
+      <c r="S23">
+        <v>0.06722417333597047</v>
+      </c>
+      <c r="T23">
+        <v>0.05014108711378032</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0982905</v>
+      </c>
+      <c r="H24">
+        <v>2.196581</v>
+      </c>
+      <c r="I24">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J24">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>34.61555133333334</v>
+      </c>
+      <c r="N24">
+        <v>103.846654</v>
+      </c>
+      <c r="O24">
+        <v>0.2224726464442049</v>
+      </c>
+      <c r="P24">
+        <v>0.2264234122191464</v>
+      </c>
+      <c r="Q24">
+        <v>38.01793118166234</v>
+      </c>
+      <c r="R24">
+        <v>228.107587089974</v>
+      </c>
+      <c r="S24">
+        <v>0.06028604066428472</v>
+      </c>
+      <c r="T24">
+        <v>0.04496608090047502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0982905</v>
+      </c>
+      <c r="H25">
+        <v>2.196581</v>
+      </c>
+      <c r="I25">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J25">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>44.54626066666666</v>
+      </c>
+      <c r="N25">
+        <v>133.638782</v>
+      </c>
+      <c r="O25">
+        <v>0.2862968844342367</v>
+      </c>
+      <c r="P25">
+        <v>0.2913810687174441</v>
+      </c>
+      <c r="Q25">
+        <v>48.92473490072366</v>
+      </c>
+      <c r="R25">
+        <v>293.548409404342</v>
+      </c>
+      <c r="S25">
+        <v>0.07758124826994887</v>
+      </c>
+      <c r="T25">
+        <v>0.05786620994888236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0982905</v>
+      </c>
+      <c r="H26">
+        <v>2.196581</v>
+      </c>
+      <c r="I26">
+        <v>0.2709818111477547</v>
+      </c>
+      <c r="J26">
+        <v>0.1985928948767635</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.144714</v>
+      </c>
+      <c r="N26">
+        <v>16.289428</v>
+      </c>
+      <c r="O26">
+        <v>0.05234572347736401</v>
+      </c>
+      <c r="P26">
+        <v>0.03551686769665304</v>
+      </c>
+      <c r="Q26">
+        <v>8.945262011417</v>
+      </c>
+      <c r="R26">
+        <v>35.781048045668</v>
+      </c>
+      <c r="S26">
+        <v>0.01418473895373564</v>
+      </c>
+      <c r="T26">
+        <v>0.007053397572833333</v>
       </c>
     </row>
   </sheetData>
